--- a/Factures-Gabaril/Facture – Gabarit.xlsx
+++ b/Factures-Gabaril/Facture – Gabarit.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" checkCompatibility="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C737A90-F591-42DF-B6F0-920CB56954E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C06C4003-F353-D145-A569-0F0DE1DEC3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6620" yWindow="500" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Facture" sheetId="24" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Résonance</t>
   </si>
@@ -49,9 +49,6 @@
     <t>[Code postal, Ville]</t>
   </si>
   <si>
-    <t>Téléphone : 06 12 34 56 78</t>
-  </si>
-  <si>
     <t>N° FACTURE</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>[Nom]</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Paiement dû à la réception</t>
   </si>
   <si>
@@ -131,6 +125,30 @@
   </si>
   <si>
     <t>Les entreprises trouveront également des modèles de facture, de feuille de temps, de suivi d’inventaire, d’états financiers et de planification de projet. Les enseignants et les étudiants pourront utiliser des ressources variées, notamment des emplois du temps, des carnets de notes et des feuilles de présence. Organisez votre vie famille avec des planificateurs de repas, des listes de contrôle et des journaux d’entraînement. Chaque modèle est minutieusement étudié, affiné et amélioré au fil du temps grâce aux rétroaction de milliers d’utilisateurs.</t>
+  </si>
+  <si>
+    <t>Sarah-Septembre Lavoie-Fortin</t>
+  </si>
+  <si>
+    <t>H1Y3A8, Montréal</t>
+  </si>
+  <si>
+    <t>514-652-1569</t>
+  </si>
+  <si>
+    <t>sarahseptembre@icloud.com</t>
+  </si>
+  <si>
+    <t>6416 1re avenue</t>
+  </si>
+  <si>
+    <t>Téléphone : 514-652-1569</t>
+  </si>
+  <si>
+    <t>[H1Y3A8, Montréal]</t>
+  </si>
+  <si>
+    <t>[6416 1re avenue]</t>
   </si>
 </sst>
 </file>
@@ -138,14 +156,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_)\ &quot;$&quot;_ ;_ * \(#,##0.00\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_ * #,##0.00_)\ _$_ ;_ * \(#,##0.00\)\ _$_ ;_ * &quot;-&quot;??_)\ _$_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;$&quot;_ ;_ * \(#,##0.00\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0.00_)\ _$_ ;_ * \(#,##0.00\)\ _$_ ;_ * &quot;-&quot;??_)\ _$_ ;_ @_ "/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -900,13 +918,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1031,31 +1049,31 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="20" fillId="23" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="20" fillId="23" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="20" fillId="23" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="23" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="32" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="32" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1092,6 +1110,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="34" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1122,7 +1143,6 @@
     <cellStyle name="Avertissement" xfId="42" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="26" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="36" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Commentaire" xfId="38" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="35" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="25" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Lien hypertexte" xfId="34" builtinId="8" customBuiltin="1"/>
@@ -1134,6 +1154,7 @@
     <cellStyle name="Neutre" xfId="37" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Normal 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Note" xfId="38" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Pourcentage" xfId="49" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Satisfaisant" xfId="29" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Sortie" xfId="39" builtinId="21" customBuiltin="1"/>
@@ -1551,24 +1572,24 @@
   </sheetPr>
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="17.625" style="12" customWidth="1"/>
-    <col min="4" max="6" width="6.625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="23.875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="12" customWidth="1"/>
+    <col min="4" max="6" width="6.6640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="12" customWidth="1"/>
     <col min="10" max="10" width="29" style="12" customWidth="1"/>
     <col min="11" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="46.5" customHeight="1">
+    <row r="1" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -1582,9 +1603,9 @@
       </c>
       <c r="H1" s="51"/>
     </row>
-    <row r="2" spans="1:11" ht="19.5" customHeight="1">
+    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1593,9 +1614,9 @@
       <c r="J2" s="27"/>
       <c r="K2" s="24"/>
     </row>
-    <row r="3" spans="1:11" ht="19.5" customHeight="1">
+    <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1604,24 +1625,24 @@
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" spans="1:11" ht="19.5" customHeight="1">
+    <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="1"/>
       <c r="E4" s="3"/>
       <c r="F4" s="53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" s="53"/>
       <c r="H4" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="19.5" customHeight="1">
+    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1632,11 +1653,11 @@
       </c>
       <c r="G5" s="54"/>
       <c r="H5" s="26">
-        <v>43152</v>
+        <v>45979</v>
       </c>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1647,43 +1668,43 @@
       <c r="H6" s="1"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="56"/>
       <c r="C7" s="56"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
       <c r="F7" s="53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" s="53"/>
       <c r="H7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="28"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="J7" s="28"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
       <c r="F8" s="55" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G8" s="55"/>
       <c r="H8" s="25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1694,7 +1715,7 @@
       <c r="H9" s="1"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1703,11 +1724,13 @@
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,37 +1739,43 @@
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="J11" s="29"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="61" t="s">
+        <v>33</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="J13" s="28"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1757,28 +1786,28 @@
       <c r="H14" s="1"/>
       <c r="J14" s="28"/>
     </row>
-    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="J15" s="30"/>
+    </row>
+    <row r="16" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="38" t="s">
         <v>18</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="30"/>
-    </row>
-    <row r="16" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A16" s="38" t="s">
-        <v>20</v>
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
@@ -1793,9 +1822,9 @@
       </c>
       <c r="J16" s="28"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
@@ -1810,10 +1839,10 @@
       </c>
       <c r="J17" s="28"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39"/>
       <c r="B18" s="39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
@@ -1826,7 +1855,7 @@
       </c>
       <c r="J18" s="28"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -1840,7 +1869,7 @@
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
@@ -1854,7 +1883,7 @@
       </c>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
@@ -1868,7 +1897,7 @@
       </c>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
@@ -1882,7 +1911,7 @@
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
@@ -1896,7 +1925,7 @@
       </c>
       <c r="J23" s="30"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
@@ -1910,7 +1939,7 @@
       </c>
       <c r="J24" s="30"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
@@ -1924,7 +1953,7 @@
       </c>
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="1:10" ht="20.25" customHeight="1">
+    <row r="26" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
@@ -1938,7 +1967,7 @@
       </c>
       <c r="J26" s="30"/>
     </row>
-    <row r="27" spans="1:10" ht="20.25" customHeight="1">
+    <row r="27" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39"/>
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
@@ -1952,7 +1981,7 @@
       </c>
       <c r="J27" s="30"/>
     </row>
-    <row r="28" spans="1:10" ht="20.25" customHeight="1">
+    <row r="28" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
@@ -1966,7 +1995,7 @@
       </c>
       <c r="J28" s="30"/>
     </row>
-    <row r="29" spans="1:10" ht="20.25" customHeight="1">
+    <row r="29" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
@@ -1980,7 +2009,7 @@
       </c>
       <c r="J29" s="30"/>
     </row>
-    <row r="30" spans="1:10" ht="20.25" customHeight="1">
+    <row r="30" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="40"/>
       <c r="C30" s="40"/>
@@ -1994,16 +2023,16 @@
       </c>
       <c r="J30" s="30"/>
     </row>
-    <row r="31" spans="1:10" s="13" customFormat="1" ht="20.25" customHeight="1">
+    <row r="31" spans="1:10" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="57" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B31" s="57"/>
       <c r="C31" s="57"/>
       <c r="D31" s="57"/>
       <c r="E31" s="57"/>
       <c r="F31" s="58" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G31" s="59"/>
       <c r="H31" s="48">
@@ -2012,7 +2041,7 @@
       </c>
       <c r="J31" s="28"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75">
+    <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2023,7 +2052,7 @@
       <c r="H32" s="49"/>
       <c r="J32" s="28"/>
     </row>
-    <row r="33" spans="1:10" ht="13.5" customHeight="1">
+    <row r="33" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2034,9 +2063,9 @@
       <c r="H33" s="4"/>
       <c r="J33" s="28"/>
     </row>
-    <row r="34" spans="1:10" ht="13.5" customHeight="1">
+    <row r="34" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="60" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34" s="60"/>
       <c r="C34" s="60"/>
@@ -2047,9 +2076,9 @@
       <c r="H34" s="60"/>
       <c r="J34" s="30"/>
     </row>
-    <row r="35" spans="1:10" ht="13.5" customHeight="1">
+    <row r="35" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B35" s="52"/>
       <c r="C35" s="52"/>
@@ -2060,7 +2089,7 @@
       <c r="H35" s="52"/>
       <c r="J35" s="28"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J36" s="19"/>
     </row>
   </sheetData>
@@ -2081,9 +2110,12 @@
       <formula1>"FACTURE,REÇU"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G13" r:id="rId1" xr:uid="{5B5710F5-0A84-094D-AECA-C660067DBE6F}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.25"/>
-  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2096,42 +2128,42 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="78.625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="78.6640625" style="6" customWidth="1"/>
     <col min="2" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1"/>
-    <row r="2" spans="1:2" s="11" customFormat="1" ht="15.75">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:2" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="23"/>
+    </row>
+    <row r="3" spans="1:2" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="22"/>
+    </row>
+    <row r="4" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:2" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="23"/>
-    </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="41" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="22"/>
-    </row>
-    <row r="4" spans="1:2" ht="25.5" customHeight="1"/>
-    <row r="5" spans="1:2" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="9" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="21"/>
+    </row>
+    <row r="8" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15">
-      <c r="A7" s="21"/>
-    </row>
-    <row r="8" spans="1:2" ht="90">
-      <c r="A8" s="21" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2446,6 +2478,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -2465,25 +2506,45 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B91D1CA-045D-4473-BB98-3EDA708F145C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B91D1CA-045D-4473-BB98-3EDA708F145C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D626D1C8-EC9A-4213-BF72-F97E82B4EAAA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C42C6076-3E7F-4885-A017-B36671B5853A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C42C6076-3E7F-4885-A017-B36671B5853A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D626D1C8-EC9A-4213-BF72-F97E82B4EAAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
